--- a/simulations/cleaned_inclusion_exclusion/Chou_2004 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Chou_2004 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -713,31 +713,31 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D3">
-        <v>0.2222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E3">
-        <v>0.4444444444444444</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="F3">
-        <v>0.7777777777777778</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.06503067484662577</v>
+        <v>0.4159509202453988</v>
       </c>
       <c r="I3">
-        <v>0.4973610254301186</v>
+        <v>0.2300363287408321</v>
       </c>
       <c r="J3">
-        <v>-0.1111111111111111</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K3">
-        <v>811.2222222222222</v>
+        <v>377.8888888888889</v>
       </c>
       <c r="L3">
         <v>9</v>
@@ -755,34 +755,34 @@
         <v>8</v>
       </c>
       <c r="Q3">
-        <v>1246</v>
+        <v>1063</v>
       </c>
       <c r="R3">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="S3">
-        <v>545</v>
+        <v>137</v>
       </c>
       <c r="T3">
-        <v>1161</v>
+        <v>526</v>
       </c>
       <c r="U3">
-        <v>1245</v>
+        <v>673</v>
       </c>
       <c r="V3">
-        <v>375</v>
+        <v>558</v>
       </c>
       <c r="W3">
-        <v>1449</v>
+        <v>1601</v>
       </c>
       <c r="X3">
-        <v>1076</v>
+        <v>1484</v>
       </c>
       <c r="Y3">
-        <v>460</v>
+        <v>1095</v>
       </c>
       <c r="Z3">
-        <v>376</v>
+        <v>948</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -803,16 +803,16 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.893893</v>
+        <v>0.987662</v>
       </c>
       <c r="AH3">
-        <v>0.663788</v>
+        <v>0.915484</v>
       </c>
       <c r="AI3">
-        <v>0.283775</v>
+        <v>0.675509</v>
       </c>
       <c r="AJ3">
-        <v>0.231956</v>
+        <v>0.584824</v>
       </c>
     </row>
   </sheetData>
